--- a/sorteddata.xlsx
+++ b/sorteddata.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common Positives" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Concordance" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Common Negatives" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pos_R_Neg_A" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positive_RAMJA_Negative_AIIMS" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Others_A" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Contaminated Samples_A" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
